--- a/NewProbableCasesOverTimeByCounty/2021-03-12.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-03-12.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 03/11/2021 at 9:30 AM CST</t>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 03/12/2021 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>New Probable 2021-03-11</t>
+  </si>
+  <si>
+    <t>New Probable 2021-03-12</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1429,6 +1432,7 @@
     <col min="130" max="130" width="12.0" customWidth="true"/>
     <col min="131" max="131" width="12.0" customWidth="true"/>
     <col min="132" max="132" width="12.0" customWidth="true"/>
+    <col min="133" max="133" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1838,10 +1842,13 @@
       <c r="EB3" t="s" s="10">
         <v>133</v>
       </c>
+      <c r="EC3" t="s" s="10">
+        <v>134</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2235,11 +2242,14 @@
       </c>
       <c r="EB4" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2632,12 +2642,15 @@
         <v>0.0</v>
       </c>
       <c r="EB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -3030,12 +3043,15 @@
         <v>21.0</v>
       </c>
       <c r="EB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3429,11 +3445,14 @@
       </c>
       <c r="EB7" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3827,11 +3846,14 @@
       </c>
       <c r="EB8" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -4224,12 +4246,15 @@
         <v>0.0</v>
       </c>
       <c r="EB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC9" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -4623,11 +4648,14 @@
       </c>
       <c r="EB10" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5021,11 +5049,14 @@
       </c>
       <c r="EB11" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -5418,12 +5449,15 @@
         <v>0.0</v>
       </c>
       <c r="EB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC12" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5816,12 +5850,15 @@
         <v>1.0</v>
       </c>
       <c r="EB13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -6214,12 +6251,15 @@
         <v>5.0</v>
       </c>
       <c r="EB14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="EC14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -6612,12 +6652,15 @@
         <v>0.0</v>
       </c>
       <c r="EB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -7010,12 +7053,15 @@
         <v>0.0</v>
       </c>
       <c r="EB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC16" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -7408,12 +7454,15 @@
         <v>0.0</v>
       </c>
       <c r="EB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" t="n">
         <v>54.0</v>
@@ -7807,11 +7856,14 @@
       </c>
       <c r="EB18" t="n">
         <v>32.0</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -8205,11 +8257,14 @@
       </c>
       <c r="EB19" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -8602,12 +8657,15 @@
         <v>0.0</v>
       </c>
       <c r="EB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -9000,12 +9058,15 @@
         <v>0.0</v>
       </c>
       <c r="EB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -9399,11 +9460,14 @@
       </c>
       <c r="EB22" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC22" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -9797,11 +9861,14 @@
       </c>
       <c r="EB23" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EC23" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -10195,11 +10262,14 @@
       </c>
       <c r="EB24" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -10593,11 +10663,14 @@
       </c>
       <c r="EB25" t="n">
         <v>-4.0</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -10990,12 +11063,15 @@
         <v>0.0</v>
       </c>
       <c r="EB26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -11389,11 +11465,14 @@
       </c>
       <c r="EB27" t="n">
         <v>-19.0</v>
+      </c>
+      <c r="EC27" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -11786,12 +11865,15 @@
         <v>0.0</v>
       </c>
       <c r="EB28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC28" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -12185,11 +12267,14 @@
       </c>
       <c r="EB29" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EC29" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -12583,11 +12668,14 @@
       </c>
       <c r="EB30" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EC30" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -12981,11 +13069,14 @@
       </c>
       <c r="EB31" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC31" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -13379,11 +13470,14 @@
       </c>
       <c r="EB32" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EC32" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -13777,11 +13871,14 @@
       </c>
       <c r="EB33" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC33" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -14174,12 +14271,15 @@
         <v>0.0</v>
       </c>
       <c r="EB34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -14572,12 +14672,15 @@
         <v>0.0</v>
       </c>
       <c r="EB35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC35" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -14970,12 +15073,15 @@
         <v>0.0</v>
       </c>
       <c r="EB36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC36" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -15368,12 +15474,15 @@
         <v>1.0</v>
       </c>
       <c r="EB37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC37" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -15766,12 +15875,15 @@
         <v>0.0</v>
       </c>
       <c r="EB38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC38" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -16164,12 +16276,15 @@
         <v>0.0</v>
       </c>
       <c r="EB39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -16563,11 +16678,14 @@
       </c>
       <c r="EB40" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC40" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -16960,12 +17078,15 @@
         <v>0.0</v>
       </c>
       <c r="EB41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC41" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -17359,11 +17480,14 @@
       </c>
       <c r="EB42" t="n">
         <v>3.0</v>
+      </c>
+      <c r="EC42" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -17756,12 +17880,15 @@
         <v>0.0</v>
       </c>
       <c r="EB43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC43" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -18154,12 +18281,15 @@
         <v>-2.0</v>
       </c>
       <c r="EB44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC44" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -18552,12 +18682,15 @@
         <v>3.0</v>
       </c>
       <c r="EB45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B46" t="n">
         <v>30.0</v>
@@ -18951,11 +19084,14 @@
       </c>
       <c r="EB46" t="n">
         <v>78.0</v>
+      </c>
+      <c r="EC46" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -19348,12 +19484,15 @@
         <v>0.0</v>
       </c>
       <c r="EB47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC47" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -19747,11 +19886,14 @@
       </c>
       <c r="EB48" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC48" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -20145,11 +20287,14 @@
       </c>
       <c r="EB49" t="n">
         <v>5.0</v>
+      </c>
+      <c r="EC49" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
@@ -20542,12 +20687,15 @@
         <v>1.0</v>
       </c>
       <c r="EB50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC50" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -20941,11 +21089,14 @@
       </c>
       <c r="EB51" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC51" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
@@ -21338,12 +21489,15 @@
         <v>1.0</v>
       </c>
       <c r="EB52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="EC52" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -21737,11 +21891,14 @@
       </c>
       <c r="EB53" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC53" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
@@ -22134,12 +22291,15 @@
         <v>0.0</v>
       </c>
       <c r="EB54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -22533,11 +22693,14 @@
       </c>
       <c r="EB55" t="n">
         <v>-4.0</v>
+      </c>
+      <c r="EC55" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -22930,12 +23093,15 @@
         <v>0.0</v>
       </c>
       <c r="EB56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC56" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -23329,11 +23495,14 @@
       </c>
       <c r="EB57" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC57" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -23726,12 +23895,15 @@
         <v>0.0</v>
       </c>
       <c r="EB58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC58" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
@@ -24124,12 +24296,15 @@
         <v>0.0</v>
       </c>
       <c r="EB59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC59" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B60" t="n">
         <v>137.0</v>
@@ -24523,11 +24698,14 @@
       </c>
       <c r="EB60" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC60" t="n">
+        <v>249.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -24920,12 +25098,15 @@
         <v>0.0</v>
       </c>
       <c r="EB61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -25319,11 +25500,14 @@
       </c>
       <c r="EB62" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC62" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -25716,12 +25900,15 @@
         <v>0.0</v>
       </c>
       <c r="EB63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC63" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B64" t="n">
         <v>23.0</v>
@@ -26115,11 +26302,14 @@
       </c>
       <c r="EB64" t="n">
         <v>259.0</v>
+      </c>
+      <c r="EC64" t="n">
+        <v>283.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -26512,12 +26702,15 @@
         <v>0.0</v>
       </c>
       <c r="EB65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
@@ -26910,12 +27103,15 @@
         <v>0.0</v>
       </c>
       <c r="EB66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC66" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
@@ -27308,12 +27504,15 @@
         <v>0.0</v>
       </c>
       <c r="EB67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC67" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
@@ -27706,12 +27905,15 @@
         <v>0.0</v>
       </c>
       <c r="EB68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC68" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
@@ -28104,12 +28306,15 @@
         <v>1.0</v>
       </c>
       <c r="EB69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC69" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -28503,11 +28708,14 @@
       </c>
       <c r="EB70" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC70" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
@@ -28901,11 +29109,14 @@
       </c>
       <c r="EB71" t="n">
         <v>13.0</v>
+      </c>
+      <c r="EC71" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -29298,12 +29509,15 @@
         <v>0.0</v>
       </c>
       <c r="EB72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
@@ -29697,11 +29911,14 @@
       </c>
       <c r="EB73" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EC73" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -30094,12 +30311,15 @@
         <v>0.0</v>
       </c>
       <c r="EB74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
@@ -30493,11 +30713,14 @@
       </c>
       <c r="EB75" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC75" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
@@ -30890,12 +31113,15 @@
         <v>0.0</v>
       </c>
       <c r="EB76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC76" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -31289,11 +31515,14 @@
       </c>
       <c r="EB77" t="n">
         <v>5.0</v>
+      </c>
+      <c r="EC77" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
@@ -31687,11 +31916,14 @@
       </c>
       <c r="EB78" t="n">
         <v>9.0</v>
+      </c>
+      <c r="EC78" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -32084,12 +32316,15 @@
         <v>0.0</v>
       </c>
       <c r="EB79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
@@ -32482,12 +32717,15 @@
         <v>1.0</v>
       </c>
       <c r="EB80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC80" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
@@ -32880,12 +33118,15 @@
         <v>0.0</v>
       </c>
       <c r="EB81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B82" t="n">
         <v>13.0</v>
@@ -33279,11 +33520,14 @@
       </c>
       <c r="EB82" t="n">
         <v>104.0</v>
+      </c>
+      <c r="EC82" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
@@ -33676,12 +33920,15 @@
         <v>-1.0</v>
       </c>
       <c r="EB83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC83" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -34075,11 +34322,14 @@
       </c>
       <c r="EB84" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC84" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
@@ -34473,11 +34723,14 @@
       </c>
       <c r="EB85" t="n">
         <v>5.0</v>
+      </c>
+      <c r="EC85" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -34870,12 +35123,15 @@
         <v>0.0</v>
       </c>
       <c r="EB86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
@@ -35269,11 +35525,14 @@
       </c>
       <c r="EB87" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EC87" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
@@ -35666,12 +35925,15 @@
         <v>0.0</v>
       </c>
       <c r="EB88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC88" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
@@ -36065,11 +36327,14 @@
       </c>
       <c r="EB89" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EC89" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
@@ -36463,11 +36728,14 @@
       </c>
       <c r="EB90" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC90" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -36860,12 +37128,15 @@
         <v>0.0</v>
       </c>
       <c r="EB91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC91" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
@@ -37259,11 +37530,14 @@
       </c>
       <c r="EB92" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EC92" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
@@ -37656,12 +37930,15 @@
         <v>1.0</v>
       </c>
       <c r="EB93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC93" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -38054,12 +38331,15 @@
         <v>0.0</v>
       </c>
       <c r="EB94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
@@ -38453,11 +38733,14 @@
       </c>
       <c r="EB95" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC95" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -38850,12 +39133,15 @@
         <v>1.0</v>
       </c>
       <c r="EB96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC96" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
@@ -39249,11 +39535,14 @@
       </c>
       <c r="EB97" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EC97" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -39646,12 +39935,15 @@
         <v>0.0</v>
       </c>
       <c r="EB98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
@@ -40044,12 +40336,15 @@
         <v>0.0</v>
       </c>
       <c r="EB99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC99" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
@@ -40442,12 +40737,15 @@
         <v>0.0</v>
       </c>
       <c r="EB100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC100" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
@@ -40840,12 +41138,15 @@
         <v>0.0</v>
       </c>
       <c r="EB101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC101" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
@@ -41239,11 +41540,14 @@
       </c>
       <c r="EB102" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC102" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B103" t="n">
         <v>11.0</v>
@@ -41636,12 +41940,15 @@
         <v>41.0</v>
       </c>
       <c r="EB103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC103" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -42034,12 +42341,15 @@
         <v>0.0</v>
       </c>
       <c r="EB104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -42432,12 +42742,15 @@
         <v>2.0</v>
       </c>
       <c r="EB105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC105" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
@@ -42831,11 +43144,14 @@
       </c>
       <c r="EB106" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC106" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -43228,12 +43544,15 @@
         <v>0.0</v>
       </c>
       <c r="EB107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC107" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
@@ -43627,11 +43946,14 @@
       </c>
       <c r="EB108" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EC108" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
@@ -44024,12 +44346,15 @@
         <v>0.0</v>
       </c>
       <c r="EB109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC109" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -44423,11 +44748,14 @@
       </c>
       <c r="EB110" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC110" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -44821,11 +45149,14 @@
       </c>
       <c r="EB111" t="n">
         <v>85.0</v>
+      </c>
+      <c r="EC111" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -45219,11 +45550,14 @@
       </c>
       <c r="EB112" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="EC112" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
@@ -45616,12 +45950,15 @@
         <v>0.0</v>
       </c>
       <c r="EB113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC113" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
@@ -46015,11 +46352,14 @@
       </c>
       <c r="EB114" t="n">
         <v>3.0</v>
+      </c>
+      <c r="EC114" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
@@ -46413,11 +46753,14 @@
       </c>
       <c r="EB115" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC115" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
@@ -46811,11 +47154,14 @@
       </c>
       <c r="EB116" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC116" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
@@ -47208,12 +47554,15 @@
         <v>-1.0</v>
       </c>
       <c r="EB117" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="EC117" t="n">
         <v>-1.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
@@ -47606,12 +47955,15 @@
         <v>0.0</v>
       </c>
       <c r="EB118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC118" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -48004,12 +48356,15 @@
         <v>0.0</v>
       </c>
       <c r="EB119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -48402,12 +48757,15 @@
         <v>1.0</v>
       </c>
       <c r="EB120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC120" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
@@ -48800,12 +49158,15 @@
         <v>0.0</v>
       </c>
       <c r="EB121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC121" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
@@ -49198,12 +49559,15 @@
         <v>0.0</v>
       </c>
       <c r="EB122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC122" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
@@ -49596,12 +49960,15 @@
         <v>0.0</v>
       </c>
       <c r="EB123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC123" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
@@ -49995,11 +50362,14 @@
       </c>
       <c r="EB124" t="n">
         <v>10.0</v>
+      </c>
+      <c r="EC124" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
@@ -50392,12 +50762,15 @@
         <v>0.0</v>
       </c>
       <c r="EB125" t="n">
+        <v>-2.0</v>
+      </c>
+      <c r="EC125" t="n">
         <v>-2.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -50790,12 +51163,15 @@
         <v>0.0</v>
       </c>
       <c r="EB126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -51189,11 +51565,14 @@
       </c>
       <c r="EB127" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC127" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -51587,11 +51966,14 @@
       </c>
       <c r="EB128" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EC128" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
@@ -51985,11 +52367,14 @@
       </c>
       <c r="EB129" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EC129" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
@@ -52382,12 +52767,15 @@
         <v>1.0</v>
       </c>
       <c r="EB130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC130" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
@@ -52780,12 +53168,15 @@
         <v>0.0</v>
       </c>
       <c r="EB131" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="EC131" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -53179,11 +53570,14 @@
       </c>
       <c r="EB132" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EC132" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -53577,11 +53971,14 @@
       </c>
       <c r="EB133" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC133" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -53974,12 +54371,15 @@
         <v>0.0</v>
       </c>
       <c r="EB134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
@@ -54373,11 +54773,14 @@
       </c>
       <c r="EB135" t="n">
         <v>3.0</v>
+      </c>
+      <c r="EC135" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
@@ -54770,12 +55173,15 @@
         <v>3.0</v>
       </c>
       <c r="EB136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EC136" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
@@ -55169,11 +55575,14 @@
       </c>
       <c r="EB137" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="EC137" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -55566,12 +55975,15 @@
         <v>0.0</v>
       </c>
       <c r="EB138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
@@ -55964,12 +56376,15 @@
         <v>0.0</v>
       </c>
       <c r="EB139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC139" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -56363,11 +56778,14 @@
       </c>
       <c r="EB140" t="n">
         <v>-4.0</v>
+      </c>
+      <c r="EC140" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
@@ -56760,12 +57178,15 @@
         <v>0.0</v>
       </c>
       <c r="EB141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
@@ -57159,11 +57580,14 @@
       </c>
       <c r="EB142" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC142" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B143" t="n">
         <v>7.0</v>
@@ -57556,12 +57980,15 @@
         <v>0.0</v>
       </c>
       <c r="EB143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC143" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
@@ -57955,11 +58382,14 @@
       </c>
       <c r="EB144" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC144" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
@@ -58353,11 +58783,14 @@
       </c>
       <c r="EB145" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EC145" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
@@ -58751,11 +59184,14 @@
       </c>
       <c r="EB146" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EC146" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -59148,12 +59584,15 @@
         <v>4.0</v>
       </c>
       <c r="EB147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EC147" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
@@ -59547,11 +59986,14 @@
       </c>
       <c r="EB148" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EC148" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B149" t="n">
         <v>1.0</v>
@@ -59945,11 +60387,14 @@
       </c>
       <c r="EB149" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EC149" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
@@ -60343,11 +60788,14 @@
       </c>
       <c r="EB150" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC150" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
@@ -60740,12 +61188,15 @@
         <v>0.0</v>
       </c>
       <c r="EB151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC151" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
@@ -61139,11 +61590,14 @@
       </c>
       <c r="EB152" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC152" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -61537,11 +61991,14 @@
       </c>
       <c r="EB153" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC153" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -61934,12 +62391,15 @@
         <v>0.0</v>
       </c>
       <c r="EB154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -62332,12 +62792,15 @@
         <v>0.0</v>
       </c>
       <c r="EB155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -62730,12 +63193,15 @@
         <v>0.0</v>
       </c>
       <c r="EB156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -63129,11 +63595,14 @@
       </c>
       <c r="EB157" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="EC157" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -63526,12 +63995,15 @@
         <v>0.0</v>
       </c>
       <c r="EB158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -63924,12 +64396,15 @@
         <v>0.0</v>
       </c>
       <c r="EB159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC159" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -64323,11 +64798,14 @@
       </c>
       <c r="EB160" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC160" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -64721,11 +65199,14 @@
       </c>
       <c r="EB161" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC161" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
@@ -65119,11 +65600,14 @@
       </c>
       <c r="EB162" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC162" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
@@ -65517,11 +66001,14 @@
       </c>
       <c r="EB163" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC163" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
@@ -65915,11 +66402,14 @@
       </c>
       <c r="EB164" t="n">
         <v>3.0</v>
+      </c>
+      <c r="EC164" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -66312,12 +66802,15 @@
         <v>0.0</v>
       </c>
       <c r="EB165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
@@ -66711,11 +67204,14 @@
       </c>
       <c r="EB166" t="n">
         <v>5.0</v>
+      </c>
+      <c r="EC166" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
@@ -67108,12 +67604,15 @@
         <v>0.0</v>
       </c>
       <c r="EB167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC167" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -67506,12 +68005,15 @@
         <v>0.0</v>
       </c>
       <c r="EB168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
@@ -67904,12 +68406,15 @@
         <v>0.0</v>
       </c>
       <c r="EB169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC169" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
@@ -68302,12 +68807,15 @@
         <v>0.0</v>
       </c>
       <c r="EB170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC170" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -68700,12 +69208,15 @@
         <v>0.0</v>
       </c>
       <c r="EB171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
@@ -69098,12 +69609,15 @@
         <v>0.0</v>
       </c>
       <c r="EB172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC172" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -69497,11 +70011,14 @@
       </c>
       <c r="EB173" t="n">
         <v>48.0</v>
+      </c>
+      <c r="EC173" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -69895,11 +70412,14 @@
       </c>
       <c r="EB174" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="EC174" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -70293,11 +70813,14 @@
       </c>
       <c r="EB175" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC175" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -70690,12 +71213,15 @@
         <v>0.0</v>
       </c>
       <c r="EB176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -71089,11 +71615,14 @@
       </c>
       <c r="EB177" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EC177" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -71487,11 +72016,14 @@
       </c>
       <c r="EB178" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC178" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
@@ -71885,11 +72417,14 @@
       </c>
       <c r="EB179" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC179" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -72282,12 +72817,15 @@
         <v>0.0</v>
       </c>
       <c r="EB180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B181" t="n">
         <v>23.0</v>
@@ -72681,11 +73219,14 @@
       </c>
       <c r="EB181" t="n">
         <v>13.0</v>
+      </c>
+      <c r="EC181" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -73078,12 +73619,15 @@
         <v>0.0</v>
       </c>
       <c r="EB182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC182" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
@@ -73476,12 +74020,15 @@
         <v>0.0</v>
       </c>
       <c r="EB183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC183" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
@@ -73875,11 +74422,14 @@
       </c>
       <c r="EB184" t="n">
         <v>11.0</v>
+      </c>
+      <c r="EC184" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -74273,11 +74823,14 @@
       </c>
       <c r="EB185" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC185" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
@@ -74671,11 +75224,14 @@
       </c>
       <c r="EB186" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC186" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
@@ -75069,11 +75625,14 @@
       </c>
       <c r="EB187" t="n">
         <v>3.0</v>
+      </c>
+      <c r="EC187" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
@@ -75467,11 +76026,14 @@
       </c>
       <c r="EB188" t="n">
         <v>-4.0</v>
+      </c>
+      <c r="EC188" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -75865,11 +76427,14 @@
       </c>
       <c r="EB189" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC189" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
@@ -76262,12 +76827,15 @@
         <v>19.0</v>
       </c>
       <c r="EB190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC190" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -76660,12 +77228,15 @@
         <v>0.0</v>
       </c>
       <c r="EB191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -77059,11 +77630,14 @@
       </c>
       <c r="EB192" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="EC192" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -77457,11 +78031,14 @@
       </c>
       <c r="EB193" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC193" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -77854,12 +78431,15 @@
         <v>0.0</v>
       </c>
       <c r="EB194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
@@ -78252,12 +78832,15 @@
         <v>0.0</v>
       </c>
       <c r="EB195" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC195" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -78650,12 +79233,15 @@
         <v>0.0</v>
       </c>
       <c r="EB196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC196" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -79049,11 +79635,14 @@
       </c>
       <c r="EB197" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC197" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
@@ -79447,11 +80036,14 @@
       </c>
       <c r="EB198" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="EC198" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
@@ -79845,11 +80437,14 @@
       </c>
       <c r="EB199" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EC199" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
@@ -80242,12 +80837,15 @@
         <v>0.0</v>
       </c>
       <c r="EB200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
@@ -80640,12 +81238,15 @@
         <v>-1.0</v>
       </c>
       <c r="EB201" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC201" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
@@ -81039,11 +81640,14 @@
       </c>
       <c r="EB202" t="n">
         <v>6.0</v>
+      </c>
+      <c r="EC202" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -81437,11 +82041,14 @@
       </c>
       <c r="EB203" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC203" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
@@ -81835,11 +82442,14 @@
       </c>
       <c r="EB204" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EC204" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -82232,12 +82842,15 @@
         <v>0.0</v>
       </c>
       <c r="EB205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
@@ -82630,12 +83243,15 @@
         <v>6.0</v>
       </c>
       <c r="EB206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC206" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
@@ -83029,11 +83645,14 @@
       </c>
       <c r="EB207" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC207" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -83426,12 +84045,15 @@
         <v>0.0</v>
       </c>
       <c r="EB208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC208" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
@@ -83824,12 +84446,15 @@
         <v>0.0</v>
       </c>
       <c r="EB209" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EC209" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -84223,11 +84848,14 @@
       </c>
       <c r="EB210" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="EC210" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -84621,11 +85249,14 @@
       </c>
       <c r="EB211" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC211" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -85018,12 +85649,15 @@
         <v>0.0</v>
       </c>
       <c r="EB212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC212" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B213" t="n">
         <v>1.0</v>
@@ -85417,11 +86051,14 @@
       </c>
       <c r="EB213" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EC213" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -85814,12 +86451,15 @@
         <v>0.0</v>
       </c>
       <c r="EB214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC214" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
@@ -86213,11 +86853,14 @@
       </c>
       <c r="EB215" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC215" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
@@ -86611,11 +87254,14 @@
       </c>
       <c r="EB216" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC216" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -87009,11 +87655,14 @@
       </c>
       <c r="EB217" t="n">
         <v>12.0</v>
+      </c>
+      <c r="EC217" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
@@ -87406,12 +88055,15 @@
         <v>0.0</v>
       </c>
       <c r="EB218" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC218" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
@@ -87804,12 +88456,15 @@
         <v>0.0</v>
       </c>
       <c r="EB219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC219" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
@@ -88203,11 +88858,14 @@
       </c>
       <c r="EB220" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC220" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -88601,11 +89259,14 @@
       </c>
       <c r="EB221" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC221" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -88998,12 +89659,15 @@
         <v>0.0</v>
       </c>
       <c r="EB222" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EC222" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B223" t="n">
         <v>178.0</v>
@@ -89397,11 +90061,14 @@
       </c>
       <c r="EB223" t="n">
         <v>115.0</v>
+      </c>
+      <c r="EC223" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B224" t="n">
         <v>35.0</v>
@@ -89795,11 +90462,14 @@
       </c>
       <c r="EB224" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EC224" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
@@ -90192,12 +90862,15 @@
         <v>0.0</v>
       </c>
       <c r="EB225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -90590,12 +91263,15 @@
         <v>0.0</v>
       </c>
       <c r="EB226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
@@ -90988,12 +91664,15 @@
         <v>0.0</v>
       </c>
       <c r="EB227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -91387,11 +92066,14 @@
       </c>
       <c r="EB228" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EC228" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B229" t="n">
         <v>38.0</v>
@@ -91785,11 +92467,14 @@
       </c>
       <c r="EB229" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC229" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -92182,12 +92867,15 @@
         <v>0.0</v>
       </c>
       <c r="EB230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -92580,12 +93268,15 @@
         <v>0.0</v>
       </c>
       <c r="EB231" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC231" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
@@ -92979,11 +93670,14 @@
       </c>
       <c r="EB232" t="n">
         <v>3.0</v>
+      </c>
+      <c r="EC232" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
@@ -93377,11 +94071,14 @@
       </c>
       <c r="EB233" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC233" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
@@ -93775,11 +94472,14 @@
       </c>
       <c r="EB234" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC234" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
@@ -94172,12 +94872,15 @@
         <v>0.0</v>
       </c>
       <c r="EB235" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC235" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -94570,12 +95273,15 @@
         <v>0.0</v>
       </c>
       <c r="EB236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -94969,11 +95675,14 @@
       </c>
       <c r="EB237" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC237" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -95366,12 +96075,15 @@
         <v>0.0</v>
       </c>
       <c r="EB238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC238" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B239" t="n">
         <v>3.0</v>
@@ -95765,11 +96477,14 @@
       </c>
       <c r="EB239" t="n">
         <v>6.0</v>
+      </c>
+      <c r="EC239" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
@@ -96162,12 +96877,15 @@
         <v>5.0</v>
       </c>
       <c r="EB240" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="EC240" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
@@ -96561,11 +97279,14 @@
       </c>
       <c r="EB241" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC241" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
@@ -96959,11 +97680,14 @@
       </c>
       <c r="EB242" t="n">
         <v>8.0</v>
+      </c>
+      <c r="EC242" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -97356,12 +98080,15 @@
         <v>0.0</v>
       </c>
       <c r="EB243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -97755,11 +98482,14 @@
       </c>
       <c r="EB244" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EC244" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -98152,12 +98882,15 @@
         <v>0.0</v>
       </c>
       <c r="EB245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC245" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -98550,12 +99283,15 @@
         <v>0.0</v>
       </c>
       <c r="EB246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
@@ -98948,12 +99684,15 @@
         <v>0.0</v>
       </c>
       <c r="EB247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC247" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -99347,11 +100086,14 @@
       </c>
       <c r="EB248" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC248" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -99745,11 +100487,14 @@
       </c>
       <c r="EB249" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EC249" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -100143,11 +100888,14 @@
       </c>
       <c r="EB250" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EC250" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -100540,12 +101288,15 @@
         <v>0.0</v>
       </c>
       <c r="EB251" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="EC251" t="n">
         <v>-1.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -100939,11 +101690,14 @@
       </c>
       <c r="EB252" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EC252" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
@@ -101337,11 +102091,14 @@
       </c>
       <c r="EB253" t="n">
         <v>0.0</v>
+      </c>
+      <c r="EC253" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -101734,12 +102491,15 @@
         <v>0.0</v>
       </c>
       <c r="EB254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
@@ -102132,12 +102892,15 @@
         <v>0.0</v>
       </c>
       <c r="EB255" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="EC255" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -102531,11 +103294,14 @@
       </c>
       <c r="EB256" t="n">
         <v>3.0</v>
+      </c>
+      <c r="EC256" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -102928,12 +103694,15 @@
         <v>0.0</v>
       </c>
       <c r="EB257" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="EC257" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -103066,10 +103835,11 @@
       <c r="DZ258"/>
       <c r="EA258"/>
       <c r="EB258"/>
+      <c r="EC258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -103202,6 +103972,7 @@
       <c r="DZ259"/>
       <c r="EA259"/>
       <c r="EB259"/>
+      <c r="EC259"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
